--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -19,29 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Experiments</t>
   </si>
   <si>
-    <t>Method</t>
+    <t># turbo images</t>
   </si>
   <si>
-    <t>RANSAC</t>
-  </si>
-  <si>
-    <t>NOSAC</t>
-  </si>
-  <si>
-    <t>Affine</t>
+    <t>Yield (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -72,9 +67,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,6 +78,212 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="572892232"/>
+        <c:axId val="572893640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="572892232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="572893640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572893640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="572892232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -419,64 +621,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-    </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.14299999999999999</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.161</v>
-      </c>
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.223</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.13800000000000001</v>
-      </c>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
